--- a/static/calculations.xlsx
+++ b/static/calculations.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takat\OneDrive\Documents\Programming\Blog\eti-blog\content\blog\DH\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\takat\OneDrive\Documents\Programming\Blog\eti-blog\static\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE161B78-3C2A-4565-8ADB-01D851B77F6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8FA1DA-7FC8-40B4-8C14-AC1BBD7F4FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7B1EFD27-E7A9-4511-B124-4379698E9A90}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="29">
   <si>
     <t>DH1</t>
   </si>
@@ -53,19 +53,10 @@
     <t>DH1+DH2</t>
   </si>
   <si>
-    <t>k</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
     <t>Asset</t>
   </si>
   <si>
     <t>Debt DH2</t>
-  </si>
-  <si>
-    <t>Debt DH1</t>
   </si>
   <si>
     <t>Debt Total</t>
@@ -89,16 +80,49 @@
     <t>Opportunity cost</t>
   </si>
   <si>
-    <t>Net winnings</t>
-  </si>
-  <si>
     <t>Hallgató</t>
   </si>
   <si>
-    <t>Képzés hossza (félév)</t>
+    <t>Diákhitel1/félév</t>
   </si>
   <si>
-    <t>Diákhitel1/félév</t>
+    <t>Stratégia 1</t>
+  </si>
+  <si>
+    <t>Stratégia 2</t>
+  </si>
+  <si>
+    <t>Stratégia 3</t>
+  </si>
+  <si>
+    <t>Képzésből hátralévő félévek száma</t>
+  </si>
+  <si>
+    <t>Diákhitel1 kamata</t>
+  </si>
+  <si>
+    <t>Állampapír hozam</t>
+  </si>
+  <si>
+    <t>Önköltséges?</t>
+  </si>
+  <si>
+    <t>Igen</t>
+  </si>
+  <si>
+    <t>Nem</t>
+  </si>
+  <si>
+    <t>S2 befektetett</t>
+  </si>
+  <si>
+    <t>S2 felélt</t>
+  </si>
+  <si>
+    <t>DH1 adósság</t>
+  </si>
+  <si>
+    <t>DH1 adósság törlesztéssel</t>
   </si>
 </sst>
 </file>
@@ -122,7 +146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -139,88 +163,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="double">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -273,7 +234,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$M$7</c:f>
+              <c:f>Sheet1!$N$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -308,7 +269,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$27</c:f>
+              <c:f>Sheet1!$C$9:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -377,7 +338,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$M$8:$M$27</c:f>
+              <c:f>Sheet1!$N$9:$N$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -385,61 +346,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95000</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>296300.00000000047</c:v>
+                  <c:v>141300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>616402.00000000093</c:v>
+                  <c:v>295902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1069133.0800000019</c:v>
+                  <c:v>516583.08000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1669780.9032000015</c:v>
+                  <c:v>811975.90319999959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2435242.8893280029</c:v>
+                  <c:v>1191657.3893280001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3384190.4299011249</c:v>
+                  <c:v>1666246.3799011223</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4537249.6545971707</c:v>
+                  <c:v>2247511.1995971687</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5917200.4090310596</c:v>
+                  <c:v>2948488.108531056</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8569195.2704673018</c:v>
+                  <c:v>4143611.7399172988</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>11420400.610868497</c:v>
+                  <c:v>5458258.7272634916</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14370737.91784399</c:v>
+                  <c:v>6904381.8458784819</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>17562120.845352575</c:v>
+                  <c:v>8495129.1661905181</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20898654.431040991</c:v>
+                  <c:v>10244963.583962724</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>24526854.235344369</c:v>
+                  <c:v>12169794.303558279</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28355887.394526064</c:v>
+                  <c:v>14287121.469561361</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32537837.779051818</c:v>
+                  <c:v>16616195.261590641</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37107997.667833067</c:v>
+                  <c:v>19178190.898625776</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42045188.589927487</c:v>
+                  <c:v>21996401.143799469</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -456,7 +417,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$N$7</c:f>
+              <c:f>Sheet1!$O$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -491,7 +452,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$27</c:f>
+              <c:f>Sheet1!$C$9:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -560,7 +521,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$N$8:$N$27</c:f>
+              <c:f>Sheet1!$O$9:$O$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -595,34 +556,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1020000</c:v>
+                  <c:v>360000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>2142000</c:v>
+                  <c:v>756000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>3256200</c:v>
+                  <c:v>1191600</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>4481820</c:v>
+                  <c:v>1670760</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5710002</c:v>
+                  <c:v>2197836</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>7061002.2000000002</c:v>
+                  <c:v>2777619.6</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>8427102.4200000018</c:v>
+                  <c:v>3415381.5600000005</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>9929812.6620000023</c:v>
+                  <c:v>4116919.7160000009</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11582793.928200003</c:v>
+                  <c:v>4888611.6876000017</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>13341073.321020003</c:v>
+                  <c:v>5737472.8563600024</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -639,11 +600,11 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$O$7</c:f>
+              <c:f>Sheet1!$R$8</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Net winnings</c:v>
+                  <c:v>Stratégia 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -674,7 +635,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$8:$C$27</c:f>
+              <c:f>Sheet1!$C$9:$C$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -743,7 +704,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$O$8:$O$27</c:f>
+              <c:f>Sheet1!$R$9:$R$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="20"/>
@@ -751,61 +712,61 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>95000</c:v>
+                  <c:v>45000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>296300.00000000047</c:v>
+                  <c:v>141300</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>616402.00000000093</c:v>
+                  <c:v>295902</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1069133.0800000019</c:v>
+                  <c:v>516583.08000000007</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1669780.9032000015</c:v>
+                  <c:v>811975.90319999959</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2435242.8893280029</c:v>
+                  <c:v>1191657.3893280001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3384190.4299011249</c:v>
+                  <c:v>1666246.3799011223</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4537249.6545971707</c:v>
+                  <c:v>2247511.1995971687</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5917200.4090310596</c:v>
+                  <c:v>2948488.108531056</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7549195.2704673018</c:v>
+                  <c:v>3783611.7399172988</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>9278400.6108684968</c:v>
+                  <c:v>4702258.7272634916</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>11114537.91784399</c:v>
+                  <c:v>5712781.8458784819</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>13080300.845352575</c:v>
+                  <c:v>6824369.1661905181</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15188652.431040991</c:v>
+                  <c:v>8047127.5839627236</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>17465852.03534437</c:v>
+                  <c:v>9392174.7035582792</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>19928784.974526063</c:v>
+                  <c:v>10871739.90956136</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>22608025.117051817</c:v>
+                  <c:v>12499275.545590639</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>25525203.739633065</c:v>
+                  <c:v>14289579.211025774</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28704115.268907484</c:v>
+                  <c:v>16258928.287439466</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1629,13 +1590,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>389068</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>54236</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>130884</xdr:colOff>
-      <xdr:row>51</xdr:row>
+      <xdr:row>52</xdr:row>
       <xdr:rowOff>99956</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -1981,318 +1942,315 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C43CF4E-88C5-43A7-9AD6-BF2F3F719C5B}">
-  <dimension ref="B1:S47"/>
+  <dimension ref="A2:V334"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.44140625" customWidth="1"/>
+    <col min="4" max="4" width="9.21875" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="10.109375" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" customWidth="1"/>
-    <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.21875" customWidth="1"/>
-    <col min="12" max="12" width="13.44140625" customWidth="1"/>
-    <col min="13" max="13" width="15.5546875" customWidth="1"/>
-    <col min="14" max="14" width="15.6640625" customWidth="1"/>
-    <col min="15" max="15" width="17.77734375" customWidth="1"/>
+    <col min="7" max="7" width="9.6640625" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" customWidth="1"/>
+    <col min="9" max="9" width="23.77734375" customWidth="1"/>
+    <col min="11" max="11" width="11" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" customWidth="1"/>
+    <col min="13" max="13" width="13.44140625" customWidth="1"/>
+    <col min="14" max="14" width="15.5546875" customWidth="1"/>
+    <col min="15" max="17" width="15.6640625" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" customWidth="1"/>
+    <col min="19" max="19" width="13.77734375" customWidth="1"/>
+    <col min="20" max="20" width="13.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+    <row r="2" spans="2:22" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>3</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="4"/>
+      <c r="I2" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="2:19" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" s="6">
         <v>10</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="6">
         <v>500000</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="6">
         <v>0.04</v>
       </c>
-      <c r="E3" s="7">
+      <c r="E3" s="6">
         <v>0.1</v>
       </c>
-      <c r="F3" s="7">
+      <c r="F3" s="6">
         <v>1000000</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <v>750000</v>
       </c>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="6" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="R6" t="s">
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="U7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="2" t="s">
         <v>12</v>
       </c>
+      <c r="O8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="R8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="S8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="T8" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8" s="1">
+        <v>0.04</v>
+      </c>
     </row>
-    <row r="7" spans="2:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="2" t="s">
+    <row r="9" spans="2:22" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="B9" t="str">
+        <f>IF($B$3&gt;=C9, "Igen", "Nem")</f>
+        <v>Igen</v>
+      </c>
+      <c r="C9">
         <v>1</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="L7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="N7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7" s="1">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="8" spans="2:19" ht="15" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="B8" t="str">
-        <f>IF($B$3&gt;=C8, "Igen", "Nem")</f>
-        <v>Igen</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <f>IF(B8="Igen",$G$3,0)</f>
+      <c r="D9">
+        <f>IF(B9="Igen",$G$3,0)</f>
         <v>750000</v>
       </c>
-      <c r="E8">
-        <f>IF(B8="Igen",$C$3,0)</f>
-        <v>500000</v>
-      </c>
-      <c r="F8">
-        <f>D8+E8</f>
-        <v>1250000</v>
-      </c>
-      <c r="G8">
-        <f>F8</f>
-        <v>1250000</v>
-      </c>
-      <c r="H8">
-        <f>D8</f>
-        <v>750000</v>
-      </c>
-      <c r="I8">
-        <f>E8</f>
-        <v>500000</v>
-      </c>
-      <c r="J8">
-        <f>H8+I8</f>
-        <v>1250000</v>
-      </c>
-      <c r="K8">
-        <f>IF(B8="Igen",0,6*$F$3*(0.06))</f>
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <f>IF(B8="Igen",0,IF(I7=0,0,VLOOKUP(I7,$R$7:$S$11,2)*$F$3*6))</f>
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <f>G8-J8</f>
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <f>K8+L8</f>
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <f>M8-N8</f>
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>1000000</v>
-      </c>
-      <c r="S8" s="1">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="9" spans="2:19" x14ac:dyDescent="0.3">
-      <c r="B9" t="str">
-        <f t="shared" ref="B9:B46" si="0">IF($B$3&gt;=C9, "Igen", "Nem")</f>
-        <v>Igen</v>
-      </c>
-      <c r="C9">
-        <v>2</v>
-      </c>
-      <c r="D9">
-        <f t="shared" ref="D9:D47" si="1">IF(B9="Igen",$G$3,0)</f>
-        <v>750000</v>
-      </c>
       <c r="E9">
-        <f t="shared" ref="E9:E47" si="2">IF(B9="Igen",$C$3,0)</f>
-        <v>500000</v>
+        <f>IF($I$3="Igen", IF(B9="Igen",$C$3,0), 0)</f>
+        <v>0</v>
       </c>
       <c r="F9">
         <f>D9+E9</f>
-        <v>1250000</v>
+        <v>750000</v>
       </c>
       <c r="G9">
-        <f>G8*(1+$E$3)+F9</f>
-        <v>2625000</v>
+        <f>F9</f>
+        <v>750000</v>
       </c>
       <c r="H9">
-        <f>H8*(1+$D$3)+D9</f>
-        <v>1530000</v>
+        <f>D9</f>
+        <v>750000</v>
       </c>
       <c r="I9">
-        <f>MAX(I8+E9-L9,0)</f>
+        <f>D9</f>
+        <v>750000</v>
+      </c>
+      <c r="J9">
+        <f>E9</f>
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <f>I9+J9</f>
+        <v>750000</v>
+      </c>
+      <c r="L9">
+        <f>IF(B9="Igen",0,6*$F$3*(0.06))</f>
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f>IF(B9="Igen",0,IF(J8=0,0,VLOOKUP(J8,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <f>G9-K9</f>
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <f>L9+M9</f>
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <f>H9*(1+$D$3)/(1+$E$3)</f>
+        <v>709090.90909090906</v>
+      </c>
+      <c r="Q9">
+        <f>G9-P9</f>
+        <v>40909.090909090941</v>
+      </c>
+      <c r="R9">
+        <f>N9-O9</f>
+        <v>0</v>
+      </c>
+      <c r="U9">
         <v>1000000</v>
       </c>
-      <c r="J9">
-        <f t="shared" ref="J9:J26" si="3">H9+I9</f>
-        <v>2530000</v>
-      </c>
-      <c r="K9">
-        <f t="shared" ref="K9:K47" si="4">IF(B9="Igen",0,6*$F$3*(0.06))</f>
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <f t="shared" ref="L9:L47" si="5">IF(B9="Igen",0,IF(I8=0,0,VLOOKUP(I8,$R$7:$S$11,2)*$F$3*6))</f>
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <f>G9-J9</f>
-        <v>95000</v>
-      </c>
-      <c r="N9">
-        <f>N8*(1+$E$3)+K9+L9</f>
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <f t="shared" ref="O9:O27" si="6">M9-N9</f>
-        <v>95000</v>
-      </c>
-      <c r="R9">
-        <v>2000000</v>
-      </c>
-      <c r="S9" s="1">
-        <v>7.0000000000000007E-2</v>
+      <c r="V9" s="1">
+        <v>0.05</v>
       </c>
     </row>
-    <row r="10" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="B10:B47" si="0">IF($B$3&gt;=C10, "Igen", "Nem")</f>
         <v>Igen</v>
       </c>
       <c r="C10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D10">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="D10:D48" si="1">IF(B10="Igen",$G$3,0)</f>
         <v>750000</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>500000</v>
+        <f t="shared" ref="E10:E48" si="2">IF($I$3="Igen", IF(B10="Igen",$C$3,0), 0)</f>
+        <v>0</v>
       </c>
       <c r="F10">
-        <f t="shared" ref="F9:F27" si="7">D10+E10</f>
-        <v>1250000</v>
+        <f>D10+E10</f>
+        <v>750000</v>
       </c>
       <c r="G10">
-        <f>G9*(1+$E$3)+F10</f>
-        <v>4137500.0000000005</v>
+        <f t="shared" ref="G10:G48" si="3">G9*(1+$E$3)+F10</f>
+        <v>1575000</v>
       </c>
       <c r="H10">
         <f>H9*(1+$D$3)+D10</f>
-        <v>2341200</v>
+        <v>1530000</v>
       </c>
       <c r="I10">
-        <f t="shared" ref="I10:I47" si="8">MAX(I9+E10-L10,0)</f>
-        <v>1500000</v>
+        <f>I9*(1+$D$3)+D10</f>
+        <v>1530000</v>
       </c>
       <c r="J10">
-        <f t="shared" si="3"/>
-        <v>3841200</v>
+        <f>MAX(J9+E10-M10,0)</f>
+        <v>0</v>
       </c>
       <c r="K10">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" ref="K10:K27" si="4">I10+J10</f>
+        <v>1530000</v>
       </c>
       <c r="L10">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="L10:L48" si="5">IF(B10="Igen",0,6*$F$3*(0.06))</f>
         <v>0</v>
       </c>
       <c r="M10">
-        <f t="shared" ref="M10:M27" si="9">G10-J10</f>
-        <v>296300.00000000047</v>
+        <f>IF(B10="Igen",0,IF(J9=0,0,VLOOKUP(J9,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N10">
-        <f>N9*(1+$E$3)+K10+L10</f>
-        <v>0</v>
+        <f>G10-K10</f>
+        <v>45000</v>
       </c>
       <c r="O10">
-        <f t="shared" si="6"/>
-        <v>296300.00000000047</v>
+        <f t="shared" ref="O10:O48" si="6">O9*(1+$E$3)+L10+M10</f>
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <f t="shared" ref="P10:P48" si="7">H10*(1+$D$3)/(1+$E$3)</f>
+        <v>1446545.4545454544</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" ref="Q10:Q48" si="8">G10-P10</f>
+        <v>128454.54545454565</v>
       </c>
       <c r="R10">
-        <v>3000000</v>
-      </c>
-      <c r="S10" s="1">
-        <v>0.09</v>
+        <f t="shared" ref="R10:R28" si="9">N10-O10</f>
+        <v>45000</v>
+      </c>
+      <c r="U10">
+        <v>2000000</v>
+      </c>
+      <c r="V10" s="1">
+        <v>7.0000000000000007E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B11" t="str">
         <f t="shared" si="0"/>
         <v>Igen</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
@@ -2300,62 +2258,74 @@
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F11">
-        <f t="shared" si="7"/>
-        <v>1250000</v>
+        <f t="shared" ref="F11:F28" si="10">D11+E11</f>
+        <v>750000</v>
       </c>
       <c r="G11">
-        <f>G10*(1+$E$3)+F11</f>
-        <v>5801250.0000000009</v>
+        <f t="shared" si="3"/>
+        <v>2482500</v>
       </c>
       <c r="H11">
-        <f>H10*(1+$D$3)+D11</f>
-        <v>3184848</v>
+        <f t="shared" ref="H11:H48" si="11">H10*(1+$D$3)+D11</f>
+        <v>2341200</v>
       </c>
       <c r="I11">
-        <f t="shared" si="8"/>
-        <v>2000000</v>
+        <f t="shared" ref="I11:I18" si="12">I10*(1+$D$3)+D11</f>
+        <v>2341200</v>
       </c>
       <c r="J11">
-        <f t="shared" si="3"/>
-        <v>5184848</v>
+        <f t="shared" ref="J11:J48" si="13">MAX(J10+E11-M11,0)</f>
+        <v>0</v>
       </c>
       <c r="K11">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>2341200</v>
       </c>
       <c r="L11">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M11">
-        <f t="shared" si="9"/>
-        <v>616402.00000000093</v>
+        <f>IF(B11="Igen",0,IF(J10=0,0,VLOOKUP(J10,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N11">
-        <f>N10*(1+$E$3)+K11+L11</f>
-        <v>0</v>
+        <f t="shared" ref="N11:N28" si="14">G11-K11</f>
+        <v>141300</v>
       </c>
       <c r="O11">
         <f t="shared" si="6"/>
-        <v>616402.00000000093</v>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="7"/>
+        <v>2213498.1818181816</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="8"/>
+        <v>269001.81818181835</v>
       </c>
       <c r="R11">
-        <v>4000000</v>
-      </c>
-      <c r="S11" s="1">
-        <v>0.11</v>
+        <f t="shared" si="9"/>
+        <v>141300</v>
+      </c>
+      <c r="U11">
+        <v>3000000</v>
+      </c>
+      <c r="V11" s="1">
+        <v>0.09</v>
       </c>
     </row>
-    <row r="12" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B12" t="str">
         <f t="shared" si="0"/>
         <v>Igen</v>
       </c>
       <c r="C12">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
@@ -2363,56 +2333,74 @@
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <f t="shared" si="7"/>
-        <v>1250000</v>
+        <f t="shared" si="10"/>
+        <v>750000</v>
       </c>
       <c r="G12">
-        <f>G11*(1+$E$3)+F12</f>
-        <v>7631375.0000000019</v>
+        <f t="shared" si="3"/>
+        <v>3480750</v>
       </c>
       <c r="H12">
-        <f>H11*(1+$D$3)+D12</f>
-        <v>4062241.92</v>
+        <f t="shared" si="11"/>
+        <v>3184848</v>
       </c>
       <c r="I12">
-        <f t="shared" si="8"/>
-        <v>2500000</v>
+        <f t="shared" si="12"/>
+        <v>3184848</v>
       </c>
       <c r="J12">
-        <f t="shared" si="3"/>
-        <v>6562241.9199999999</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K12">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>3184848</v>
       </c>
       <c r="L12">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M12">
-        <f t="shared" si="9"/>
-        <v>1069133.0800000019</v>
+        <f>IF(B12="Igen",0,IF(J11=0,0,VLOOKUP(J11,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N12">
-        <f>N11*(1+$E$3)+K12+L12</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>295902</v>
       </c>
       <c r="O12">
         <f t="shared" si="6"/>
-        <v>1069133.0800000019</v>
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <f t="shared" si="7"/>
+        <v>3011129.0181818181</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="8"/>
+        <v>469620.98181818193</v>
+      </c>
+      <c r="R12">
+        <f t="shared" si="9"/>
+        <v>295902</v>
+      </c>
+      <c r="U12">
+        <v>4000000</v>
+      </c>
+      <c r="V12" s="1">
+        <v>0.11</v>
       </c>
     </row>
-    <row r="13" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B13" t="str">
         <f t="shared" si="0"/>
         <v>Igen</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
@@ -2420,56 +2408,68 @@
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <f t="shared" si="7"/>
-        <v>1250000</v>
+        <f t="shared" si="10"/>
+        <v>750000</v>
       </c>
       <c r="G13">
-        <f>G12*(1+$E$3)+F13</f>
-        <v>9644512.5000000019</v>
+        <f t="shared" si="3"/>
+        <v>4578825</v>
       </c>
       <c r="H13">
-        <f>H12*(1+$D$3)+D13</f>
-        <v>4974731.5968000004</v>
+        <f t="shared" si="11"/>
+        <v>4062241.92</v>
       </c>
       <c r="I13">
-        <f t="shared" si="8"/>
-        <v>3000000</v>
+        <f t="shared" si="12"/>
+        <v>4062241.92</v>
       </c>
       <c r="J13">
-        <f t="shared" si="3"/>
-        <v>7974731.5968000004</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K13">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4062241.92</v>
       </c>
       <c r="L13">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M13">
-        <f t="shared" si="9"/>
-        <v>1669780.9032000015</v>
+        <f>IF(B13="Igen",0,IF(J12=0,0,VLOOKUP(J12,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N13">
-        <f>N12*(1+$E$3)+K13+L13</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>516583.08000000007</v>
       </c>
       <c r="O13">
         <f t="shared" si="6"/>
-        <v>1669780.9032000015</v>
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <f t="shared" si="7"/>
+        <v>3840665.088</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="8"/>
+        <v>738159.91200000001</v>
+      </c>
+      <c r="R13">
+        <f t="shared" si="9"/>
+        <v>516583.08000000007</v>
       </c>
     </row>
-    <row r="14" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B14" t="str">
         <f t="shared" si="0"/>
         <v>Igen</v>
       </c>
       <c r="C14">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
@@ -2477,56 +2477,68 @@
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F14">
-        <f t="shared" si="7"/>
-        <v>1250000</v>
+        <f t="shared" si="10"/>
+        <v>750000</v>
       </c>
       <c r="G14">
-        <f>G13*(1+$E$3)+F14</f>
-        <v>11858963.750000004</v>
+        <f t="shared" si="3"/>
+        <v>5786707.5</v>
       </c>
       <c r="H14">
-        <f>H13*(1+$D$3)+D14</f>
-        <v>5923720.8606720008</v>
+        <f t="shared" si="11"/>
+        <v>4974731.5968000004</v>
       </c>
       <c r="I14">
-        <f t="shared" si="8"/>
-        <v>3500000</v>
+        <f t="shared" si="12"/>
+        <v>4974731.5968000004</v>
       </c>
       <c r="J14">
-        <f t="shared" si="3"/>
-        <v>9423720.8606720008</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K14">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4974731.5968000004</v>
       </c>
       <c r="L14">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M14">
-        <f t="shared" si="9"/>
-        <v>2435242.8893280029</v>
+        <f>IF(B14="Igen",0,IF(J13=0,0,VLOOKUP(J13,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N14">
-        <f>N13*(1+$E$3)+K14+L14</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>811975.90319999959</v>
       </c>
       <c r="O14">
         <f t="shared" si="6"/>
-        <v>2435242.8893280029</v>
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <f t="shared" si="7"/>
+        <v>4703382.6006109091</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="8"/>
+        <v>1083324.8993890909</v>
+      </c>
+      <c r="R14">
+        <f t="shared" si="9"/>
+        <v>811975.90319999959</v>
       </c>
     </row>
-    <row r="15" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B15" t="str">
         <f t="shared" si="0"/>
         <v>Igen</v>
       </c>
       <c r="C15">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
@@ -2534,56 +2546,68 @@
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F15">
-        <f t="shared" si="7"/>
-        <v>1250000</v>
+        <f t="shared" si="10"/>
+        <v>750000</v>
       </c>
       <c r="G15">
-        <f>G14*(1+$E$3)+F15</f>
-        <v>14294860.125000006</v>
+        <f t="shared" si="3"/>
+        <v>7115378.2500000009</v>
       </c>
       <c r="H15">
-        <f>H14*(1+$D$3)+D15</f>
-        <v>6910669.6950988807</v>
+        <f t="shared" si="11"/>
+        <v>5923720.8606720008</v>
       </c>
       <c r="I15">
-        <f t="shared" si="8"/>
-        <v>4000000</v>
+        <f t="shared" si="12"/>
+        <v>5923720.8606720008</v>
       </c>
       <c r="J15">
-        <f t="shared" si="3"/>
-        <v>10910669.695098881</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K15">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>5923720.8606720008</v>
       </c>
       <c r="L15">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M15">
-        <f t="shared" si="9"/>
-        <v>3384190.4299011249</v>
+        <f>IF(B15="Igen",0,IF(J14=0,0,VLOOKUP(J14,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N15">
-        <f>N14*(1+$E$3)+K15+L15</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1191657.3893280001</v>
       </c>
       <c r="O15">
         <f t="shared" si="6"/>
-        <v>3384190.4299011249</v>
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <f t="shared" si="7"/>
+        <v>5600608.8137262547</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="8"/>
+        <v>1514769.4362737462</v>
+      </c>
+      <c r="R15">
+        <f t="shared" si="9"/>
+        <v>1191657.3893280001</v>
       </c>
     </row>
-    <row r="16" spans="2:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B16" t="str">
         <f t="shared" si="0"/>
         <v>Igen</v>
       </c>
       <c r="C16">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
@@ -2591,56 +2615,68 @@
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <f t="shared" si="7"/>
-        <v>1250000</v>
+        <f t="shared" si="10"/>
+        <v>750000</v>
       </c>
       <c r="G16">
-        <f>G15*(1+$E$3)+F16</f>
-        <v>16974346.137500007</v>
+        <f t="shared" si="3"/>
+        <v>8576916.075000003</v>
       </c>
       <c r="H16">
-        <f>H15*(1+$D$3)+D16</f>
-        <v>7937096.4829028361</v>
+        <f t="shared" si="11"/>
+        <v>6910669.6950988807</v>
       </c>
       <c r="I16">
-        <f t="shared" si="8"/>
-        <v>4500000</v>
+        <f t="shared" si="12"/>
+        <v>6910669.6950988807</v>
       </c>
       <c r="J16">
-        <f t="shared" si="3"/>
-        <v>12437096.482902836</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K16">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>6910669.6950988807</v>
       </c>
       <c r="L16">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M16">
-        <f t="shared" si="9"/>
-        <v>4537249.6545971707</v>
+        <f>IF(B16="Igen",0,IF(J15=0,0,VLOOKUP(J15,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N16">
-        <f>N15*(1+$E$3)+K16+L16</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>1666246.3799011223</v>
       </c>
       <c r="O16">
         <f t="shared" si="6"/>
-        <v>4537249.6545971707</v>
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <f t="shared" si="7"/>
+        <v>6533724.0753662139</v>
+      </c>
+      <c r="Q16">
+        <f t="shared" si="8"/>
+        <v>2043191.9996337891</v>
+      </c>
+      <c r="R16">
+        <f t="shared" si="9"/>
+        <v>1666246.3799011223</v>
       </c>
     </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B17" t="str">
         <f t="shared" si="0"/>
         <v>Igen</v>
       </c>
       <c r="C17">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
@@ -2648,113 +2684,137 @@
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>500000</v>
+        <v>0</v>
       </c>
       <c r="F17">
-        <f t="shared" si="7"/>
-        <v>1250000</v>
+        <f t="shared" si="10"/>
+        <v>750000</v>
       </c>
       <c r="G17">
-        <f>G16*(1+$E$3)+F17</f>
-        <v>19921780.75125001</v>
+        <f t="shared" si="3"/>
+        <v>10184607.682500005</v>
       </c>
       <c r="H17">
-        <f>H16*(1+$D$3)+D17</f>
-        <v>9004580.3422189504</v>
+        <f t="shared" si="11"/>
+        <v>7937096.4829028361</v>
       </c>
       <c r="I17">
-        <f t="shared" si="8"/>
-        <v>5000000</v>
+        <f t="shared" si="12"/>
+        <v>7937096.4829028361</v>
       </c>
       <c r="J17">
-        <f t="shared" si="3"/>
-        <v>14004580.34221895</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K17">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>7937096.4829028361</v>
       </c>
       <c r="L17">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="M17">
-        <f t="shared" si="9"/>
-        <v>5917200.4090310596</v>
+        <f>IF(B17="Igen",0,IF(J16=0,0,VLOOKUP(J16,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N17">
-        <f>N16*(1+$E$3)+K17+L17</f>
-        <v>0</v>
+        <f t="shared" si="14"/>
+        <v>2247511.1995971687</v>
       </c>
       <c r="O17">
         <f t="shared" si="6"/>
-        <v>5917200.4090310596</v>
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <f t="shared" si="7"/>
+        <v>7504163.9474717714</v>
+      </c>
+      <c r="Q17">
+        <f t="shared" si="8"/>
+        <v>2680443.7350282334</v>
+      </c>
+      <c r="R17">
+        <f t="shared" si="9"/>
+        <v>2247511.1995971687</v>
       </c>
     </row>
-    <row r="18" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B18" t="str">
         <f t="shared" si="0"/>
-        <v>Nem</v>
+        <v>Igen</v>
       </c>
       <c r="C18">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D18">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>750000</v>
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F18">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f t="shared" si="10"/>
+        <v>750000</v>
       </c>
       <c r="G18">
-        <f>G17*(1+$E$3)+F18</f>
-        <v>21913958.826375011</v>
+        <f t="shared" si="3"/>
+        <v>11953068.450750006</v>
       </c>
       <c r="H18">
-        <f>H17*(1+$D$3)+D18-K18</f>
-        <v>9004763.5559077095</v>
+        <f t="shared" si="11"/>
+        <v>9004580.3422189504</v>
       </c>
       <c r="I18">
-        <f t="shared" si="8"/>
-        <v>4340000</v>
+        <f t="shared" si="12"/>
+        <v>9004580.3422189504</v>
       </c>
       <c r="J18">
-        <f t="shared" si="3"/>
-        <v>13344763.55590771</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K18">
         <f t="shared" si="4"/>
-        <v>360000</v>
+        <v>9004580.3422189504</v>
       </c>
       <c r="L18">
         <f t="shared" si="5"/>
-        <v>660000</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <f t="shared" si="9"/>
-        <v>8569195.2704673018</v>
+        <f>IF(B18="Igen",0,IF(J17=0,0,VLOOKUP(J17,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N18">
-        <f>N17*(1+$E$3)+K18+L18</f>
-        <v>1020000</v>
+        <f t="shared" si="14"/>
+        <v>2948488.108531056</v>
       </c>
       <c r="O18">
         <f t="shared" si="6"/>
-        <v>7549195.2704673018</v>
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <f t="shared" si="7"/>
+        <v>8513421.4144615531</v>
+      </c>
+      <c r="Q18">
+        <f t="shared" si="8"/>
+        <v>3439647.0362884533</v>
+      </c>
+      <c r="R18">
+        <f t="shared" si="9"/>
+        <v>2948488.108531056</v>
       </c>
     </row>
-    <row r="19" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B19" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C19">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
@@ -2765,53 +2825,65 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G19">
-        <f>G18*(1+$E$3)+F19</f>
-        <v>24105354.709012516</v>
+        <f t="shared" si="3"/>
+        <v>13148375.295825008</v>
       </c>
       <c r="H19">
-        <f>H18*(1+$D$3)+D19-K19</f>
-        <v>9004954.098144019</v>
+        <f t="shared" si="11"/>
+        <v>9364763.5559077095</v>
       </c>
       <c r="I19">
-        <f t="shared" si="8"/>
-        <v>3680000</v>
+        <f t="shared" ref="I19:I48" si="15">I18*(1+$D$3)+D19-L19</f>
+        <v>9004763.5559077095</v>
       </c>
       <c r="J19">
-        <f t="shared" si="3"/>
-        <v>12684954.098144019</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K19">
         <f t="shared" si="4"/>
-        <v>360000</v>
+        <v>9004763.5559077095</v>
       </c>
       <c r="L19">
         <f t="shared" si="5"/>
-        <v>660000</v>
+        <v>360000</v>
       </c>
       <c r="M19">
-        <f t="shared" si="9"/>
-        <v>11420400.610868497</v>
+        <f>IF(B19="Igen",0,IF(J18=0,0,VLOOKUP(J18,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N19">
-        <f>N18*(1+$E$3)+K19+L19</f>
-        <v>2142000</v>
+        <f t="shared" si="14"/>
+        <v>4143611.7399172988</v>
       </c>
       <c r="O19">
         <f t="shared" si="6"/>
-        <v>9278400.6108684968</v>
+        <v>360000</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="7"/>
+        <v>8853958.2710400168</v>
+      </c>
+      <c r="Q19">
+        <f t="shared" si="8"/>
+        <v>4294417.0247849915</v>
+      </c>
+      <c r="R19">
+        <f t="shared" si="9"/>
+        <v>3783611.7399172988</v>
       </c>
     </row>
-    <row r="20" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B20" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C20">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
@@ -2822,53 +2894,65 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G20">
-        <f>G19*(1+$E$3)+F20</f>
-        <v>26515890.17991377</v>
+        <f t="shared" si="3"/>
+        <v>14463212.825407511</v>
       </c>
       <c r="H20">
-        <f>H19*(1+$D$3)+D20-K20</f>
-        <v>9005152.2620697804</v>
+        <f t="shared" si="11"/>
+        <v>9739354.098144019</v>
       </c>
       <c r="I20">
-        <f t="shared" si="8"/>
-        <v>3140000</v>
+        <f t="shared" si="15"/>
+        <v>9004954.098144019</v>
       </c>
       <c r="J20">
-        <f t="shared" si="3"/>
-        <v>12145152.26206978</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K20">
         <f t="shared" si="4"/>
-        <v>360000</v>
+        <v>9004954.098144019</v>
       </c>
       <c r="L20">
         <f t="shared" si="5"/>
-        <v>540000</v>
+        <v>360000</v>
       </c>
       <c r="M20">
-        <f t="shared" si="9"/>
-        <v>14370737.91784399</v>
+        <f>IF(B20="Igen",0,IF(J19=0,0,VLOOKUP(J19,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N20">
-        <f>N19*(1+$E$3)+K20+L20</f>
-        <v>3256200</v>
+        <f t="shared" si="14"/>
+        <v>5458258.7272634916</v>
       </c>
       <c r="O20">
         <f t="shared" si="6"/>
-        <v>11114537.91784399</v>
+        <v>756000</v>
+      </c>
+      <c r="P20">
+        <f t="shared" si="7"/>
+        <v>9208116.6018816177</v>
+      </c>
+      <c r="Q20">
+        <f t="shared" si="8"/>
+        <v>5255096.2235258929</v>
+      </c>
+      <c r="R20">
+        <f t="shared" si="9"/>
+        <v>4702258.7272634916</v>
       </c>
     </row>
-    <row r="21" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B21" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C21">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
@@ -2879,53 +2963,65 @@
         <v>0</v>
       </c>
       <c r="F21">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G21">
-        <f>G20*(1+$E$3)+F21</f>
-        <v>29167479.197905149</v>
+        <f t="shared" si="3"/>
+        <v>15909534.107948262</v>
       </c>
       <c r="H21">
-        <f>H20*(1+$D$3)+D21-K21</f>
-        <v>9005358.3525525723</v>
+        <f t="shared" si="11"/>
+        <v>10128928.26206978</v>
       </c>
       <c r="I21">
-        <f t="shared" si="8"/>
-        <v>2600000</v>
+        <f t="shared" si="15"/>
+        <v>9005152.2620697804</v>
       </c>
       <c r="J21">
-        <f t="shared" si="3"/>
-        <v>11605358.352552572</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K21">
         <f t="shared" si="4"/>
-        <v>360000</v>
+        <v>9005152.2620697804</v>
       </c>
       <c r="L21">
         <f t="shared" si="5"/>
-        <v>540000</v>
+        <v>360000</v>
       </c>
       <c r="M21">
-        <f t="shared" si="9"/>
-        <v>17562120.845352575</v>
+        <f>IF(B21="Igen",0,IF(J20=0,0,VLOOKUP(J20,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N21">
-        <f>N20*(1+$E$3)+K21+L21</f>
-        <v>4481820</v>
+        <f t="shared" si="14"/>
+        <v>6904381.8458784819</v>
       </c>
       <c r="O21">
         <f t="shared" si="6"/>
-        <v>13080300.845352575</v>
+        <v>1191600</v>
+      </c>
+      <c r="P21">
+        <f t="shared" si="7"/>
+        <v>9576441.2659568824</v>
+      </c>
+      <c r="Q21">
+        <f t="shared" si="8"/>
+        <v>6333092.8419913799</v>
+      </c>
+      <c r="R21">
+        <f t="shared" si="9"/>
+        <v>5712781.8458784819</v>
       </c>
     </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B22" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C22">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D22">
         <f t="shared" si="1"/>
@@ -2936,53 +3032,65 @@
         <v>0</v>
       </c>
       <c r="F22">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G22">
-        <f>G21*(1+$E$3)+F22</f>
-        <v>32084227.117695667</v>
+        <f t="shared" si="3"/>
+        <v>17500487.51874309</v>
       </c>
       <c r="H22">
-        <f>H21*(1+$D$3)+D22-K22</f>
-        <v>9005572.6866546758</v>
+        <f t="shared" si="11"/>
+        <v>10534085.392552571</v>
       </c>
       <c r="I22">
-        <f t="shared" si="8"/>
-        <v>2180000</v>
+        <f t="shared" si="15"/>
+        <v>9005358.3525525723</v>
       </c>
       <c r="J22">
-        <f t="shared" si="3"/>
-        <v>11185572.686654676</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K22">
         <f t="shared" si="4"/>
-        <v>360000</v>
+        <v>9005358.3525525723</v>
       </c>
       <c r="L22">
         <f t="shared" si="5"/>
-        <v>420000</v>
+        <v>360000</v>
       </c>
       <c r="M22">
-        <f t="shared" si="9"/>
-        <v>20898654.431040991</v>
+        <f>IF(B22="Igen",0,IF(J21=0,0,VLOOKUP(J21,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N22">
-        <f>N21*(1+$E$3)+K22+L22</f>
-        <v>5710002</v>
+        <f t="shared" si="14"/>
+        <v>8495129.1661905181</v>
       </c>
       <c r="O22">
         <f t="shared" si="6"/>
-        <v>15188652.431040991</v>
+        <v>1670760</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="7"/>
+        <v>9959498.9165951572</v>
+      </c>
+      <c r="Q22">
+        <f t="shared" si="8"/>
+        <v>7540988.6021479331</v>
+      </c>
+      <c r="R22">
+        <f t="shared" si="9"/>
+        <v>6824369.1661905181</v>
       </c>
     </row>
-    <row r="23" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B23" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C23">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
@@ -2993,53 +3101,65 @@
         <v>0</v>
       </c>
       <c r="F23">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G23">
-        <f>G22*(1+$E$3)+F23</f>
-        <v>35292649.829465233</v>
+        <f t="shared" si="3"/>
+        <v>19250536.270617399</v>
       </c>
       <c r="H23">
-        <f>H22*(1+$D$3)+D23-K23</f>
-        <v>9005795.5941208638</v>
+        <f t="shared" si="11"/>
+        <v>10955448.808254674</v>
       </c>
       <c r="I23">
-        <f t="shared" si="8"/>
-        <v>1760000</v>
+        <f t="shared" si="15"/>
+        <v>9005572.6866546758</v>
       </c>
       <c r="J23">
-        <f t="shared" si="3"/>
-        <v>10765795.594120864</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K23">
         <f t="shared" si="4"/>
-        <v>360000</v>
+        <v>9005572.6866546758</v>
       </c>
       <c r="L23">
         <f t="shared" si="5"/>
-        <v>420000</v>
+        <v>360000</v>
       </c>
       <c r="M23">
-        <f t="shared" si="9"/>
-        <v>24526854.235344369</v>
+        <f>IF(B23="Igen",0,IF(J22=0,0,VLOOKUP(J22,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N23">
-        <f>N22*(1+$E$3)+K23+L23</f>
-        <v>7061002.2000000002</v>
+        <f t="shared" si="14"/>
+        <v>10244963.583962724</v>
       </c>
       <c r="O23">
         <f t="shared" si="6"/>
-        <v>17465852.03534437</v>
+        <v>2197836</v>
+      </c>
+      <c r="P23">
+        <f t="shared" si="7"/>
+        <v>10357878.873258963</v>
+      </c>
+      <c r="Q23">
+        <f t="shared" si="8"/>
+        <v>8892657.3973584361</v>
+      </c>
+      <c r="R23">
+        <f t="shared" si="9"/>
+        <v>8047127.5839627236</v>
       </c>
     </row>
-    <row r="24" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B24" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C24">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
@@ -3050,53 +3170,65 @@
         <v>0</v>
       </c>
       <c r="F24">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G24">
-        <f>G23*(1+$E$3)+F24</f>
-        <v>38821914.812411763</v>
+        <f t="shared" si="3"/>
+        <v>21175589.897679143</v>
       </c>
       <c r="H24">
-        <f>H23*(1+$D$3)+D24-K24</f>
-        <v>9006027.4178856984</v>
+        <f t="shared" si="11"/>
+        <v>11393666.760584861</v>
       </c>
       <c r="I24">
-        <f t="shared" si="8"/>
-        <v>1460000</v>
+        <f t="shared" si="15"/>
+        <v>9005795.5941208638</v>
       </c>
       <c r="J24">
-        <f t="shared" si="3"/>
-        <v>10466027.417885698</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K24">
         <f t="shared" si="4"/>
-        <v>360000</v>
+        <v>9005795.5941208638</v>
       </c>
       <c r="L24">
         <f t="shared" si="5"/>
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="M24">
-        <f t="shared" si="9"/>
-        <v>28355887.394526064</v>
+        <f>IF(B24="Igen",0,IF(J23=0,0,VLOOKUP(J23,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N24">
-        <f>N23*(1+$E$3)+K24+L24</f>
-        <v>8427102.4200000018</v>
+        <f t="shared" si="14"/>
+        <v>12169794.303558279</v>
       </c>
       <c r="O24">
         <f t="shared" si="6"/>
-        <v>19928784.974526063</v>
+        <v>2777619.6</v>
+      </c>
+      <c r="P24">
+        <f t="shared" si="7"/>
+        <v>10772194.028189322</v>
+      </c>
+      <c r="Q24">
+        <f t="shared" si="8"/>
+        <v>10403395.869489821</v>
+      </c>
+      <c r="R24">
+        <f t="shared" si="9"/>
+        <v>9392174.7035582792</v>
       </c>
     </row>
-    <row r="25" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B25" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C25">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
@@ -3107,53 +3239,65 @@
         <v>0</v>
       </c>
       <c r="F25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G25">
-        <f>G24*(1+$E$3)+F25</f>
-        <v>42704106.293652944</v>
+        <f t="shared" si="3"/>
+        <v>23293148.887447059</v>
       </c>
       <c r="H25">
-        <f>H24*(1+$D$3)+D25-K25</f>
-        <v>9006268.5146011263</v>
+        <f t="shared" si="11"/>
+        <v>11849413.431008255</v>
       </c>
       <c r="I25">
-        <f t="shared" si="8"/>
-        <v>1160000</v>
+        <f t="shared" si="15"/>
+        <v>9006027.4178856984</v>
       </c>
       <c r="J25">
-        <f t="shared" si="3"/>
-        <v>10166268.514601126</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K25">
         <f t="shared" si="4"/>
-        <v>360000</v>
+        <v>9006027.4178856984</v>
       </c>
       <c r="L25">
         <f t="shared" si="5"/>
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="M25">
-        <f t="shared" si="9"/>
-        <v>32537837.779051818</v>
+        <f>IF(B25="Igen",0,IF(J24=0,0,VLOOKUP(J24,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N25">
-        <f>N24*(1+$E$3)+K25+L25</f>
-        <v>9929812.6620000023</v>
+        <f t="shared" si="14"/>
+        <v>14287121.469561361</v>
       </c>
       <c r="O25">
         <f t="shared" si="6"/>
-        <v>22608025.117051817</v>
+        <v>3415381.5600000005</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="7"/>
+        <v>11203081.789316894</v>
+      </c>
+      <c r="Q25">
+        <f t="shared" si="8"/>
+        <v>12090067.098130165</v>
+      </c>
+      <c r="R25">
+        <f t="shared" si="9"/>
+        <v>10871739.90956136</v>
       </c>
     </row>
-    <row r="26" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B26" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D26">
         <f t="shared" si="1"/>
@@ -3164,53 +3308,65 @@
         <v>0</v>
       </c>
       <c r="F26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G26">
-        <f>G25*(1+$E$3)+F26</f>
-        <v>46974516.923018239</v>
+        <f t="shared" si="3"/>
+        <v>25622463.776191767</v>
       </c>
       <c r="H26">
-        <f>H25*(1+$D$3)+D26-K26</f>
-        <v>9006519.255185172</v>
+        <f t="shared" si="11"/>
+        <v>12323389.968248585</v>
       </c>
       <c r="I26">
-        <f t="shared" si="8"/>
-        <v>860000</v>
+        <f t="shared" si="15"/>
+        <v>9006268.5146011263</v>
       </c>
       <c r="J26">
-        <f t="shared" si="3"/>
-        <v>9866519.255185172</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K26">
         <f t="shared" si="4"/>
-        <v>360000</v>
+        <v>9006268.5146011263</v>
       </c>
       <c r="L26">
         <f t="shared" si="5"/>
-        <v>300000</v>
+        <v>360000</v>
       </c>
       <c r="M26">
-        <f t="shared" si="9"/>
-        <v>37107997.667833067</v>
+        <f>IF(B26="Igen",0,IF(J25=0,0,VLOOKUP(J25,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N26">
-        <f>N25*(1+$E$3)+K26+L26</f>
-        <v>11582793.928200003</v>
+        <f t="shared" si="14"/>
+        <v>16616195.261590641</v>
       </c>
       <c r="O26">
         <f t="shared" si="6"/>
-        <v>25525203.739633065</v>
+        <v>4116919.7160000009</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="7"/>
+        <v>11651205.06088957</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" si="8"/>
+        <v>13971258.715302197</v>
+      </c>
+      <c r="R26">
+        <f t="shared" si="9"/>
+        <v>12499275.545590639</v>
       </c>
     </row>
-    <row r="27" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B27" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C27">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
@@ -3221,53 +3377,65 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G27">
-        <f>G26*(1+$E$3)+F27</f>
-        <v>51671968.615320064</v>
+        <f t="shared" si="3"/>
+        <v>28184710.153810948</v>
       </c>
       <c r="H27">
-        <f>H26*(1+$D$3)+D27-K27</f>
-        <v>9006780.0253925789</v>
+        <f t="shared" si="11"/>
+        <v>12816325.566978529</v>
       </c>
       <c r="I27">
-        <f t="shared" si="8"/>
-        <v>620000</v>
+        <f t="shared" si="15"/>
+        <v>9006519.255185172</v>
       </c>
       <c r="J27">
-        <f>H27+I27</f>
-        <v>9626780.0253925789</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K27">
         <f t="shared" si="4"/>
-        <v>360000</v>
+        <v>9006519.255185172</v>
       </c>
       <c r="L27">
         <f t="shared" si="5"/>
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="M27">
-        <f t="shared" si="9"/>
-        <v>42045188.589927487</v>
+        <f>IF(B27="Igen",0,IF(J26=0,0,VLOOKUP(J26,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N27">
-        <f>N26*(1+$E$3)+K27+L27</f>
-        <v>13341073.321020003</v>
+        <f t="shared" si="14"/>
+        <v>19178190.898625776</v>
       </c>
       <c r="O27">
         <f t="shared" si="6"/>
-        <v>28704115.268907484</v>
+        <v>4888611.6876000017</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="7"/>
+        <v>12117253.263325153</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="8"/>
+        <v>16067456.890485795</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="9"/>
+        <v>14289579.211025774</v>
       </c>
     </row>
-    <row r="28" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B28" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C28">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
@@ -3278,53 +3446,65 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <f t="shared" ref="F28:F47" si="10">D28+E28</f>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="G28">
-        <f>G27*(1+$E$3)+F28</f>
-        <v>56839165.476852074</v>
+        <f t="shared" si="3"/>
+        <v>31003181.169192046</v>
       </c>
       <c r="H28">
-        <f>H27*(1+$D$3)+D28-K28</f>
-        <v>9007051.2264082823</v>
+        <f t="shared" si="11"/>
+        <v>13328978.58965767</v>
       </c>
       <c r="I28">
-        <f t="shared" si="8"/>
-        <v>380000</v>
+        <f t="shared" si="15"/>
+        <v>9006780.0253925789</v>
       </c>
       <c r="J28">
-        <f t="shared" ref="J28:J47" si="11">H28+I28</f>
-        <v>9387051.2264082823</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K28">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f>I28+J28</f>
+        <v>9006780.0253925789</v>
       </c>
       <c r="L28">
         <f t="shared" si="5"/>
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="M28:M47" si="12">G28-J28</f>
-        <v>47452114.250443794</v>
+        <f>IF(B28="Igen",0,IF(J27=0,0,VLOOKUP(J27,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N28">
-        <f>N27*(1+$E$3)+K28+L28</f>
-        <v>15275180.653122004</v>
+        <f t="shared" si="14"/>
+        <v>21996401.143799469</v>
       </c>
       <c r="O28">
-        <f t="shared" ref="O28:O47" si="13">M28-N28</f>
-        <v>32176933.59732179</v>
+        <f t="shared" si="6"/>
+        <v>5737472.8563600024</v>
+      </c>
+      <c r="P28">
+        <f t="shared" si="7"/>
+        <v>12601943.393858161</v>
+      </c>
+      <c r="Q28">
+        <f t="shared" si="8"/>
+        <v>18401237.775333885</v>
+      </c>
+      <c r="R28">
+        <f t="shared" si="9"/>
+        <v>16258928.287439466</v>
       </c>
     </row>
-    <row r="29" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B29" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C29">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
@@ -3335,53 +3515,65 @@
         <v>0</v>
       </c>
       <c r="F29">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="F29:F48" si="16">D29+E29</f>
         <v>0</v>
       </c>
       <c r="G29">
-        <f>G28*(1+$E$3)+F29</f>
-        <v>62523082.024537288</v>
+        <f t="shared" si="3"/>
+        <v>34103499.286111251</v>
       </c>
       <c r="H29">
-        <f>H28*(1+$D$3)+D29-K29</f>
-        <v>9007333.275464613</v>
+        <f t="shared" si="11"/>
+        <v>13862137.733243978</v>
       </c>
       <c r="I29">
-        <f t="shared" si="8"/>
-        <v>140000</v>
+        <f t="shared" si="15"/>
+        <v>9007051.2264082823</v>
       </c>
       <c r="J29">
-        <f t="shared" si="11"/>
-        <v>9147333.275464613</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K29">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" ref="K29:K48" si="17">I29+J29</f>
+        <v>9007051.2264082823</v>
       </c>
       <c r="L29">
         <f t="shared" si="5"/>
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="M29">
-        <f t="shared" si="12"/>
-        <v>53375748.749072671</v>
+        <f>IF(B29="Igen",0,IF(J28=0,0,VLOOKUP(J28,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N29">
-        <f>N28*(1+$E$3)+K29+L29</f>
-        <v>17402698.718434207</v>
+        <f t="shared" ref="N29:N48" si="18">G29-K29</f>
+        <v>25096448.05970297</v>
       </c>
       <c r="O29">
-        <f t="shared" si="13"/>
-        <v>35973050.030638464</v>
+        <f t="shared" si="6"/>
+        <v>6671220.1419960028</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="7"/>
+        <v>13106021.129612489</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="8"/>
+        <v>20997478.15649876</v>
+      </c>
+      <c r="R29">
+        <f t="shared" ref="R29:R48" si="19">N29-O29</f>
+        <v>18425227.917706966</v>
       </c>
     </row>
-    <row r="30" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B30" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C30">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D30">
         <f t="shared" si="1"/>
@@ -3392,53 +3584,65 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G30">
-        <f>G29*(1+$E$3)+F30</f>
-        <v>68775390.226991028</v>
+        <f t="shared" si="3"/>
+        <v>37513849.21472238</v>
       </c>
       <c r="H30">
-        <f>H29*(1+$D$3)+D30-K30</f>
-        <v>9007626.6064831987</v>
+        <f t="shared" si="11"/>
+        <v>14416623.242573738</v>
       </c>
       <c r="I30">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9007333.275464613</v>
       </c>
       <c r="J30">
-        <f t="shared" si="11"/>
-        <v>9007626.6064831987</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K30">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9007333.275464613</v>
       </c>
       <c r="L30">
         <f t="shared" si="5"/>
-        <v>240000</v>
+        <v>360000</v>
       </c>
       <c r="M30">
-        <f t="shared" si="12"/>
-        <v>59767763.620507829</v>
+        <f>IF(B30="Igen",0,IF(J29=0,0,VLOOKUP(J29,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N30">
-        <f>N29*(1+$E$3)+K30+L30</f>
-        <v>19742968.590277631</v>
+        <f t="shared" si="18"/>
+        <v>28506515.939257767</v>
       </c>
       <c r="O30">
-        <f t="shared" si="13"/>
-        <v>40024795.030230194</v>
+        <f t="shared" si="6"/>
+        <v>7698342.1561956033</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="7"/>
+        <v>13630261.974796988</v>
+      </c>
+      <c r="Q30">
+        <f t="shared" si="8"/>
+        <v>23883587.239925392</v>
+      </c>
+      <c r="R30">
+        <f t="shared" si="19"/>
+        <v>20808173.783062164</v>
       </c>
     </row>
-    <row r="31" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B31" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C31">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
@@ -3449,53 +3653,65 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G31">
-        <f>G30*(1+$E$3)+F31</f>
-        <v>75652929.24969013</v>
+        <f t="shared" si="3"/>
+        <v>41265234.136194624</v>
       </c>
       <c r="H31">
-        <f>H30*(1+$D$3)+D31-K31</f>
-        <v>9007931.6707425267</v>
+        <f t="shared" si="11"/>
+        <v>14993288.172276689</v>
       </c>
       <c r="I31">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f>I30*(1+$D$3)+D31-L31</f>
+        <v>9007626.6064831987</v>
       </c>
       <c r="J31">
-        <f t="shared" si="11"/>
-        <v>9007931.6707425267</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K31">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9007626.6064831987</v>
       </c>
       <c r="L31">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M31">
-        <f t="shared" si="12"/>
-        <v>66644997.578947604</v>
+        <f>IF(B31="Igen",0,IF(J30=0,0,VLOOKUP(J30,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N31">
-        <f>N30*(1+$E$3)+K31+L31</f>
-        <v>22077265.449305397</v>
+        <f t="shared" si="18"/>
+        <v>32257607.529711425</v>
       </c>
       <c r="O31">
-        <f t="shared" si="13"/>
-        <v>44567732.129642203</v>
+        <f t="shared" si="6"/>
+        <v>8828176.3718151636</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="7"/>
+        <v>14175472.453788869</v>
+      </c>
+      <c r="Q31">
+        <f t="shared" si="8"/>
+        <v>27089761.682405755</v>
+      </c>
+      <c r="R31">
+        <f t="shared" si="19"/>
+        <v>23429431.157896262</v>
       </c>
     </row>
-    <row r="32" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B32" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C32">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
@@ -3506,53 +3722,65 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G32">
-        <f>G31*(1+$E$3)+F32</f>
-        <v>83218222.174659148</v>
+        <f t="shared" si="3"/>
+        <v>45391757.54981409</v>
       </c>
       <c r="H32">
-        <f>H31*(1+$D$3)+D32-K32</f>
-        <v>9008248.9375722278</v>
+        <f t="shared" si="11"/>
+        <v>15593019.699167756</v>
       </c>
       <c r="I32">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9007931.6707425267</v>
       </c>
       <c r="J32">
-        <f t="shared" si="11"/>
-        <v>9008248.9375722278</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K32">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9007931.6707425267</v>
       </c>
       <c r="L32">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M32">
-        <f t="shared" si="12"/>
-        <v>74209973.237086922</v>
+        <f>IF(B32="Igen",0,IF(J31=0,0,VLOOKUP(J31,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N32">
-        <f>N31*(1+$E$3)+K32+L32</f>
-        <v>24644991.994235937</v>
+        <f t="shared" si="18"/>
+        <v>36383825.879071563</v>
       </c>
       <c r="O32">
-        <f t="shared" si="13"/>
-        <v>49564981.242850989</v>
+        <f t="shared" si="6"/>
+        <v>10070994.00899668</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="7"/>
+        <v>14742491.351940423</v>
+      </c>
+      <c r="Q32">
+        <f t="shared" si="8"/>
+        <v>30649266.197873667</v>
+      </c>
+      <c r="R32">
+        <f t="shared" si="19"/>
+        <v>26312831.870074883</v>
       </c>
     </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B33" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C33">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33">
         <f t="shared" si="1"/>
@@ -3563,53 +3791,65 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G33">
-        <f>G32*(1+$E$3)+F33</f>
-        <v>91540044.39212507</v>
+        <f t="shared" si="3"/>
+        <v>49930933.304795504</v>
       </c>
       <c r="H33">
-        <f>H32*(1+$D$3)+D33-K33</f>
-        <v>9008578.8950751163</v>
+        <f t="shared" si="11"/>
+        <v>16216740.487134468</v>
       </c>
       <c r="I33">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9008248.9375722278</v>
       </c>
       <c r="J33">
-        <f t="shared" si="11"/>
-        <v>9008578.8950751163</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K33">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9008248.9375722278</v>
       </c>
       <c r="L33">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M33">
-        <f t="shared" si="12"/>
-        <v>82531465.497049958</v>
+        <f>IF(B33="Igen",0,IF(J32=0,0,VLOOKUP(J32,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N33">
-        <f>N32*(1+$E$3)+K33+L33</f>
-        <v>27469491.193659533</v>
+        <f t="shared" si="18"/>
+        <v>40922684.367223278</v>
       </c>
       <c r="O33">
-        <f t="shared" si="13"/>
-        <v>55061974.303390428</v>
+        <f t="shared" si="6"/>
+        <v>11438093.40989635</v>
+      </c>
+      <c r="P33">
+        <f t="shared" si="7"/>
+        <v>15332191.006018041</v>
+      </c>
+      <c r="Q33">
+        <f t="shared" si="8"/>
+        <v>34598742.298777461</v>
+      </c>
+      <c r="R33">
+        <f t="shared" si="19"/>
+        <v>29484590.957326926</v>
       </c>
     </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B34" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C34">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D34">
         <f t="shared" si="1"/>
@@ -3620,53 +3860,65 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G34">
-        <f>G33*(1+$E$3)+F34</f>
-        <v>100694048.83133759</v>
+        <f t="shared" si="3"/>
+        <v>54924026.635275058</v>
       </c>
       <c r="H34">
-        <f>H33*(1+$D$3)+D34-K34</f>
-        <v>9008922.0508781206</v>
+        <f t="shared" si="11"/>
+        <v>16865410.106619846</v>
       </c>
       <c r="I34">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9008578.8950751163</v>
       </c>
       <c r="J34">
-        <f t="shared" si="11"/>
-        <v>9008922.0508781206</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K34">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9008578.8950751163</v>
       </c>
       <c r="L34">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M34">
-        <f t="shared" si="12"/>
-        <v>91685126.780459464</v>
+        <f>IF(B34="Igen",0,IF(J33=0,0,VLOOKUP(J33,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N34">
-        <f>N33*(1+$E$3)+K34+L34</f>
-        <v>30576440.313025489</v>
+        <f t="shared" si="18"/>
+        <v>45915447.740199938</v>
       </c>
       <c r="O34">
-        <f t="shared" si="13"/>
-        <v>61108686.467433974</v>
+        <f t="shared" si="6"/>
+        <v>12941902.750885986</v>
+      </c>
+      <c r="P34">
+        <f t="shared" si="7"/>
+        <v>15945478.646258762</v>
+      </c>
+      <c r="Q34">
+        <f t="shared" si="8"/>
+        <v>38978547.989016294</v>
+      </c>
+      <c r="R34">
+        <f t="shared" si="19"/>
+        <v>32973544.989313953</v>
       </c>
     </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B35" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C35">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D35">
         <f t="shared" si="1"/>
@@ -3677,53 +3929,65 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G35">
-        <f>G34*(1+$E$3)+F35</f>
-        <v>110763453.71447136</v>
+        <f t="shared" si="3"/>
+        <v>60416429.29880257</v>
       </c>
       <c r="H35">
-        <f>H34*(1+$D$3)+D35-K35</f>
-        <v>9009278.9329132456</v>
+        <f t="shared" si="11"/>
+        <v>17540026.510884639</v>
       </c>
       <c r="I35">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9008922.0508781206</v>
       </c>
       <c r="J35">
-        <f t="shared" si="11"/>
-        <v>9009278.9329132456</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K35">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9008922.0508781206</v>
       </c>
       <c r="L35">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M35">
-        <f t="shared" si="12"/>
-        <v>101754174.78155811</v>
+        <f>IF(B35="Igen",0,IF(J34=0,0,VLOOKUP(J34,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N35">
-        <f>N34*(1+$E$3)+K35+L35</f>
-        <v>33994084.344328038</v>
+        <f t="shared" si="18"/>
+        <v>51407507.247924447</v>
       </c>
       <c r="O35">
-        <f t="shared" si="13"/>
-        <v>67760090.43723008</v>
+        <f t="shared" si="6"/>
+        <v>14596093.025974585</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="7"/>
+        <v>16583297.792109111</v>
+      </c>
+      <c r="Q35">
+        <f t="shared" si="8"/>
+        <v>43833131.50669346</v>
+      </c>
+      <c r="R35">
+        <f t="shared" si="19"/>
+        <v>36811414.22194986</v>
       </c>
     </row>
-    <row r="36" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B36" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C36">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36">
         <f t="shared" si="1"/>
@@ -3734,53 +3998,65 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G36">
-        <f>G35*(1+$E$3)+F36</f>
-        <v>121839799.0859185</v>
+        <f t="shared" si="3"/>
+        <v>66458072.228682831</v>
       </c>
       <c r="H36">
-        <f>H35*(1+$D$3)+D36-K36</f>
-        <v>9009650.0902297758</v>
+        <f t="shared" si="11"/>
+        <v>18241627.571320023</v>
       </c>
       <c r="I36">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9009278.9329132456</v>
       </c>
       <c r="J36">
-        <f t="shared" si="11"/>
-        <v>9009650.0902297758</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K36">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9009278.9329132456</v>
       </c>
       <c r="L36">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M36">
-        <f t="shared" si="12"/>
-        <v>112830148.99568872</v>
+        <f>IF(B36="Igen",0,IF(J35=0,0,VLOOKUP(J35,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N36">
-        <f>N35*(1+$E$3)+K36+L36</f>
-        <v>37753492.778760843</v>
+        <f t="shared" si="18"/>
+        <v>57448793.295769587</v>
       </c>
       <c r="O36">
-        <f t="shared" si="13"/>
-        <v>75076656.216927886</v>
+        <f t="shared" si="6"/>
+        <v>16415702.328572044</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="7"/>
+        <v>17246629.703793477</v>
+      </c>
+      <c r="Q36">
+        <f t="shared" si="8"/>
+        <v>49211442.52488935</v>
+      </c>
+      <c r="R36">
+        <f t="shared" si="19"/>
+        <v>41033090.967197545</v>
       </c>
     </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B37" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D37">
         <f t="shared" si="1"/>
@@ -3791,53 +4067,65 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G37">
-        <f>G36*(1+$E$3)+F37</f>
-        <v>134023778.99451037</v>
+        <f t="shared" si="3"/>
+        <v>73103879.451551124</v>
       </c>
       <c r="H37">
-        <f>H36*(1+$D$3)+D37-K37</f>
-        <v>9010036.0938389674</v>
+        <f t="shared" si="11"/>
+        <v>18971292.674172826</v>
       </c>
       <c r="I37">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9009650.0902297758</v>
       </c>
       <c r="J37">
-        <f t="shared" si="11"/>
-        <v>9010036.0938389674</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K37">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9009650.0902297758</v>
       </c>
       <c r="L37">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M37">
-        <f t="shared" si="12"/>
-        <v>125013742.90067139</v>
+        <f>IF(B37="Igen",0,IF(J36=0,0,VLOOKUP(J36,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N37">
-        <f>N36*(1+$E$3)+K37+L37</f>
-        <v>41888842.05663693</v>
+        <f t="shared" si="18"/>
+        <v>64094229.361321345</v>
       </c>
       <c r="O37">
-        <f t="shared" si="13"/>
-        <v>83124900.844034463</v>
+        <f t="shared" si="6"/>
+        <v>18417272.561429251</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="7"/>
+        <v>17936494.891945217</v>
+      </c>
+      <c r="Q37">
+        <f t="shared" si="8"/>
+        <v>55167384.559605911</v>
+      </c>
+      <c r="R37">
+        <f t="shared" si="19"/>
+        <v>45676956.799892098</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B38" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C38">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D38">
         <f t="shared" si="1"/>
@@ -3848,53 +4136,65 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G38">
-        <f>G37*(1+$E$3)+F38</f>
-        <v>147426156.89396143</v>
+        <f t="shared" si="3"/>
+        <v>80414267.396706238</v>
       </c>
       <c r="H38">
-        <f>H37*(1+$D$3)+D38-K38</f>
-        <v>9010437.5375925265</v>
+        <f t="shared" si="11"/>
+        <v>19730144.38113974</v>
       </c>
       <c r="I38">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9010036.0938389674</v>
       </c>
       <c r="J38">
-        <f t="shared" si="11"/>
-        <v>9010437.5375925265</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K38">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9010036.0938389674</v>
       </c>
       <c r="L38">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M38">
-        <f t="shared" si="12"/>
-        <v>138415719.3563689</v>
+        <f>IF(B38="Igen",0,IF(J37=0,0,VLOOKUP(J37,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N38">
-        <f>N37*(1+$E$3)+K38+L38</f>
-        <v>46437726.262300625</v>
+        <f t="shared" si="18"/>
+        <v>71404231.302867264</v>
       </c>
       <c r="O38">
-        <f t="shared" si="13"/>
-        <v>91977993.094068274</v>
+        <f t="shared" si="6"/>
+        <v>20618999.817572176</v>
+      </c>
+      <c r="P38">
+        <f t="shared" si="7"/>
+        <v>18653954.687623028</v>
+      </c>
+      <c r="Q38">
+        <f t="shared" si="8"/>
+        <v>61760312.709083214</v>
+      </c>
+      <c r="R38">
+        <f t="shared" si="19"/>
+        <v>50785231.485295087</v>
       </c>
     </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B39" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C39">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D39">
         <f t="shared" si="1"/>
@@ -3905,53 +4205,65 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G39">
-        <f>G38*(1+$E$3)+F39</f>
-        <v>162168772.58335757</v>
+        <f t="shared" si="3"/>
+        <v>88455694.136376873</v>
       </c>
       <c r="H39">
-        <f>H38*(1+$D$3)+D39-K39</f>
-        <v>9010855.0390962288</v>
+        <f t="shared" si="11"/>
+        <v>20519350.156385332</v>
       </c>
       <c r="I39">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9010437.5375925265</v>
       </c>
       <c r="J39">
-        <f t="shared" si="11"/>
-        <v>9010855.0390962288</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K39">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9010437.5375925265</v>
       </c>
       <c r="L39">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M39">
-        <f t="shared" si="12"/>
-        <v>153157917.54426134</v>
+        <f>IF(B39="Igen",0,IF(J38=0,0,VLOOKUP(J38,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N39">
-        <f>N38*(1+$E$3)+K39+L39</f>
-        <v>51441498.888530694</v>
+        <f t="shared" si="18"/>
+        <v>79445256.598784342</v>
       </c>
       <c r="O39">
-        <f t="shared" si="13"/>
-        <v>101716418.65573063</v>
+        <f t="shared" si="6"/>
+        <v>23040899.799329396</v>
+      </c>
+      <c r="P39">
+        <f t="shared" si="7"/>
+        <v>19400112.875127949</v>
+      </c>
+      <c r="Q39">
+        <f t="shared" si="8"/>
+        <v>69055581.261248916</v>
+      </c>
+      <c r="R39">
+        <f t="shared" si="19"/>
+        <v>56404356.799454942</v>
       </c>
     </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B40" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C40">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D40">
         <f t="shared" si="1"/>
@@ -3962,53 +4274,65 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G40">
-        <f>G39*(1+$E$3)+F40</f>
-        <v>178385649.84169334</v>
+        <f t="shared" si="3"/>
+        <v>97301263.55001457</v>
       </c>
       <c r="H40">
-        <f>H39*(1+$D$3)+D40-K40</f>
-        <v>9011289.2406600788</v>
+        <f t="shared" si="11"/>
+        <v>21340124.162640747</v>
       </c>
       <c r="I40">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9010855.0390962288</v>
       </c>
       <c r="J40">
-        <f t="shared" si="11"/>
-        <v>9011289.2406600788</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K40">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9010855.0390962288</v>
       </c>
       <c r="L40">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M40">
-        <f t="shared" si="12"/>
-        <v>169374360.60103327</v>
+        <f>IF(B40="Igen",0,IF(J39=0,0,VLOOKUP(J39,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N40">
-        <f>N39*(1+$E$3)+K40+L40</f>
-        <v>56945648.777383767</v>
+        <f t="shared" si="18"/>
+        <v>88290408.510918349</v>
       </c>
       <c r="O40">
-        <f t="shared" si="13"/>
-        <v>112428711.8236495</v>
+        <f t="shared" si="6"/>
+        <v>25704989.779262338</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="7"/>
+        <v>20176117.390133068</v>
+      </c>
+      <c r="Q40">
+        <f t="shared" si="8"/>
+        <v>77125146.159881502</v>
+      </c>
+      <c r="R40">
+        <f t="shared" si="19"/>
+        <v>62585418.731656015</v>
       </c>
     </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B41" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C41">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41">
         <f t="shared" si="1"/>
@@ -4019,53 +4343,65 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G41">
-        <f>G40*(1+$E$3)+F41</f>
-        <v>196224214.82586271</v>
+        <f t="shared" si="3"/>
+        <v>107031389.90501603</v>
       </c>
       <c r="H41">
-        <f>H40*(1+$D$3)+D41-K41</f>
-        <v>9011740.8102864828</v>
+        <f t="shared" si="11"/>
+        <v>22193729.129146378</v>
       </c>
       <c r="I41">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9011289.2406600788</v>
       </c>
       <c r="J41">
-        <f t="shared" si="11"/>
-        <v>9011740.8102864828</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K41">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9011289.2406600788</v>
       </c>
       <c r="L41">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M41">
-        <f t="shared" si="12"/>
-        <v>187212474.01557621</v>
+        <f>IF(B41="Igen",0,IF(J40=0,0,VLOOKUP(J40,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N41">
-        <f>N40*(1+$E$3)+K41+L41</f>
-        <v>63000213.655122146</v>
+        <f t="shared" si="18"/>
+        <v>98020100.664355963</v>
       </c>
       <c r="O41">
-        <f t="shared" si="13"/>
-        <v>124212260.36045407</v>
+        <f t="shared" si="6"/>
+        <v>28635488.757188573</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="7"/>
+        <v>20983162.085738394</v>
+      </c>
+      <c r="Q41">
+        <f t="shared" si="8"/>
+        <v>86048227.819277644</v>
+      </c>
+      <c r="R41">
+        <f t="shared" si="19"/>
+        <v>69384611.90716739</v>
       </c>
     </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B42" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C42">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D42">
         <f t="shared" si="1"/>
@@ -4076,53 +4412,65 @@
         <v>0</v>
       </c>
       <c r="F42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G42">
-        <f>G41*(1+$E$3)+F42</f>
-        <v>215846636.308449</v>
+        <f t="shared" si="3"/>
+        <v>117734528.89551765</v>
       </c>
       <c r="H42">
-        <f>H41*(1+$D$3)+D42-K42</f>
-        <v>9012210.4426979423</v>
+        <f t="shared" si="11"/>
+        <v>23081478.294312235</v>
       </c>
       <c r="I42">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9011740.8102864828</v>
       </c>
       <c r="J42">
-        <f t="shared" si="11"/>
-        <v>9012210.4426979423</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K42">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9011740.8102864828</v>
       </c>
       <c r="L42">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M42">
-        <f t="shared" si="12"/>
-        <v>206834425.86575106</v>
+        <f>IF(B42="Igen",0,IF(J41=0,0,VLOOKUP(J41,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N42">
-        <f>N41*(1+$E$3)+K42+L42</f>
-        <v>69660235.020634368</v>
+        <f t="shared" si="18"/>
+        <v>108722788.08523117</v>
       </c>
       <c r="O42">
-        <f t="shared" si="13"/>
-        <v>137174190.84511667</v>
+        <f t="shared" si="6"/>
+        <v>31859037.632907432</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="7"/>
+        <v>21822488.569167931</v>
+      </c>
+      <c r="Q42">
+        <f t="shared" si="8"/>
+        <v>95912040.32634972</v>
+      </c>
+      <c r="R42">
+        <f t="shared" si="19"/>
+        <v>76863750.452323735</v>
       </c>
     </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B43" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C43">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D43">
         <f t="shared" si="1"/>
@@ -4133,53 +4481,65 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G43">
-        <f>G42*(1+$E$3)+F43</f>
-        <v>237431299.93929392</v>
+        <f t="shared" si="3"/>
+        <v>129507981.78506942</v>
       </c>
       <c r="H43">
-        <f>H42*(1+$D$3)+D43-K43</f>
-        <v>9012698.8604058605</v>
+        <f t="shared" si="11"/>
+        <v>24004737.426084727</v>
       </c>
       <c r="I43">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9012210.4426979423</v>
       </c>
       <c r="J43">
-        <f t="shared" si="11"/>
-        <v>9012698.8604058605</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K43">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9012210.4426979423</v>
       </c>
       <c r="L43">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M43">
-        <f t="shared" si="12"/>
-        <v>228418601.07888806</v>
+        <f>IF(B43="Igen",0,IF(J42=0,0,VLOOKUP(J42,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N43">
-        <f>N42*(1+$E$3)+K43+L43</f>
-        <v>76986258.522697806</v>
+        <f t="shared" si="18"/>
+        <v>120495771.34237148</v>
       </c>
       <c r="O43">
-        <f t="shared" si="13"/>
-        <v>151432342.55619025</v>
+        <f t="shared" si="6"/>
+        <v>35404941.396198176</v>
+      </c>
+      <c r="P43">
+        <f t="shared" si="7"/>
+        <v>22695388.111934651</v>
+      </c>
+      <c r="Q43">
+        <f t="shared" si="8"/>
+        <v>106812593.67313477</v>
+      </c>
+      <c r="R43">
+        <f t="shared" si="19"/>
+        <v>85090829.94617331</v>
       </c>
     </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B44" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C44">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D44">
         <f t="shared" si="1"/>
@@ -4190,53 +4550,65 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G44">
-        <f>G43*(1+$E$3)+F44</f>
-        <v>261174429.93322334</v>
+        <f t="shared" si="3"/>
+        <v>142458779.96357638</v>
       </c>
       <c r="H44">
-        <f>H43*(1+$D$3)+D44-K44</f>
-        <v>9013206.8148220945</v>
+        <f t="shared" si="11"/>
+        <v>24964926.923128117</v>
       </c>
       <c r="I44">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9012698.8604058605</v>
       </c>
       <c r="J44">
-        <f t="shared" si="11"/>
-        <v>9013206.8148220945</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K44">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9012698.8604058605</v>
       </c>
       <c r="L44">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M44">
-        <f t="shared" si="12"/>
-        <v>252161223.11840123</v>
+        <f>IF(B44="Igen",0,IF(J43=0,0,VLOOKUP(J43,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N44">
-        <f>N43*(1+$E$3)+K44+L44</f>
-        <v>85044884.37496759</v>
+        <f t="shared" si="18"/>
+        <v>133446081.10317051</v>
       </c>
       <c r="O44">
-        <f t="shared" si="13"/>
-        <v>167116338.74343365</v>
+        <f t="shared" si="6"/>
+        <v>39305435.535817996</v>
+      </c>
+      <c r="P44">
+        <f t="shared" si="7"/>
+        <v>23603203.636412036</v>
+      </c>
+      <c r="Q44">
+        <f t="shared" si="8"/>
+        <v>118855576.32716434</v>
+      </c>
+      <c r="R44">
+        <f t="shared" si="19"/>
+        <v>94140645.567352518</v>
       </c>
     </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B45" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C45">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D45">
         <f t="shared" si="1"/>
@@ -4247,53 +4619,65 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G45">
-        <f>G44*(1+$E$3)+F45</f>
-        <v>287291872.92654568</v>
+        <f t="shared" si="3"/>
+        <v>156704657.95993403</v>
       </c>
       <c r="H45">
-        <f>H44*(1+$D$3)+D45-K45</f>
-        <v>9013735.0874149781</v>
+        <f t="shared" si="11"/>
+        <v>25963524.000053242</v>
       </c>
       <c r="I45">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9013206.8148220945</v>
       </c>
       <c r="J45">
-        <f t="shared" si="11"/>
-        <v>9013735.0874149781</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K45">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9013206.8148220945</v>
       </c>
       <c r="L45">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M45">
-        <f t="shared" si="12"/>
-        <v>278278137.8391307</v>
+        <f>IF(B45="Igen",0,IF(J44=0,0,VLOOKUP(J44,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N45">
-        <f>N44*(1+$E$3)+K45+L45</f>
-        <v>93909372.812464356</v>
+        <f t="shared" si="18"/>
+        <v>147691451.14511192</v>
       </c>
       <c r="O45">
-        <f t="shared" si="13"/>
-        <v>184368765.02666634</v>
+        <f t="shared" si="6"/>
+        <v>43595979.0893998</v>
+      </c>
+      <c r="P45">
+        <f t="shared" si="7"/>
+        <v>24547331.781868521</v>
+      </c>
+      <c r="Q45">
+        <f t="shared" si="8"/>
+        <v>132157326.17806551</v>
+      </c>
+      <c r="R45">
+        <f t="shared" si="19"/>
+        <v>104095472.05571212</v>
       </c>
     </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.3">
       <c r="B46" t="str">
         <f t="shared" si="0"/>
         <v>Nem</v>
       </c>
       <c r="C46">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D46">
         <f t="shared" si="1"/>
@@ -4304,49 +4688,65 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G46">
-        <f>G45*(1+$E$3)+F46</f>
-        <v>316021060.21920025</v>
+        <f t="shared" si="3"/>
+        <v>172375123.75592744</v>
       </c>
       <c r="H46">
-        <f>H45*(1+$D$3)+D46-K46</f>
-        <v>9014284.4909115769</v>
+        <f t="shared" si="11"/>
+        <v>27002064.960055374</v>
       </c>
       <c r="I46">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9013735.0874149781</v>
       </c>
       <c r="J46">
-        <f t="shared" si="11"/>
-        <v>9014284.4909115769</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K46">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9013735.0874149781</v>
       </c>
       <c r="L46">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M46">
-        <f t="shared" si="12"/>
-        <v>307006775.72828865</v>
+        <f>IF(B46="Igen",0,IF(J45=0,0,VLOOKUP(J45,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N46">
-        <f>N45*(1+$E$3)+K46+L46</f>
-        <v>103660310.0937108</v>
+        <f t="shared" si="18"/>
+        <v>163361388.66851246</v>
       </c>
       <c r="O46">
-        <f t="shared" si="13"/>
-        <v>203346465.63457787</v>
+        <f t="shared" si="6"/>
+        <v>48315576.998339787</v>
+      </c>
+      <c r="P46">
+        <f t="shared" si="7"/>
+        <v>25529225.053143263</v>
+      </c>
+      <c r="Q46">
+        <f t="shared" si="8"/>
+        <v>146845898.70278418</v>
+      </c>
+      <c r="R46">
+        <f t="shared" si="19"/>
+        <v>115045811.67017268</v>
       </c>
     </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="B47" t="str">
+        <f t="shared" si="0"/>
+        <v>Nem</v>
+      </c>
       <c r="C47">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D47">
         <f t="shared" si="1"/>
@@ -4357,47 +4757,139 @@
         <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="G47">
-        <f>G46*(1+$E$3)+F47</f>
-        <v>347623166.24112028</v>
+        <f t="shared" si="3"/>
+        <v>189612636.13152021</v>
       </c>
       <c r="H47">
-        <f>H46*(1+$D$3)+D47-K47</f>
-        <v>9014855.8705480397</v>
+        <f t="shared" si="11"/>
+        <v>28082147.558457591</v>
       </c>
       <c r="I47">
-        <f t="shared" si="8"/>
-        <v>0</v>
+        <f t="shared" si="15"/>
+        <v>9014284.4909115769</v>
       </c>
       <c r="J47">
-        <f t="shared" si="11"/>
-        <v>9014855.8705480397</v>
+        <f t="shared" si="13"/>
+        <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="4"/>
-        <v>360000</v>
+        <f t="shared" si="17"/>
+        <v>9014284.4909115769</v>
       </c>
       <c r="L47">
         <f t="shared" si="5"/>
-        <v>0</v>
+        <v>360000</v>
       </c>
       <c r="M47">
-        <f t="shared" si="12"/>
-        <v>338608310.37057221</v>
+        <f>IF(B47="Igen",0,IF(J46=0,0,VLOOKUP(J46,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
       </c>
       <c r="N47">
-        <f>N46*(1+$E$3)+K47+L47</f>
-        <v>114386341.10308188</v>
+        <f t="shared" si="18"/>
+        <v>180598351.64060864</v>
       </c>
       <c r="O47">
+        <f t="shared" si="6"/>
+        <v>53507134.698173769</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="7"/>
+        <v>26550394.055268992</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="8"/>
+        <v>163062242.07625121</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="19"/>
+        <v>127091216.94243488</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.3">
+      <c r="C48">
+        <v>40</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="3"/>
+        <v>208573899.74467224</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="11"/>
+        <v>29205433.460795894</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="15"/>
+        <v>9014855.8705480397</v>
+      </c>
+      <c r="J48">
         <f t="shared" si="13"/>
-        <v>224221969.26749033</v>
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="17"/>
+        <v>9014855.8705480397</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="5"/>
+        <v>360000</v>
+      </c>
+      <c r="M48">
+        <f>IF(B48="Igen",0,IF(J47=0,0,VLOOKUP(J47,$U$8:$V$12,2)*$F$3*6))</f>
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="18"/>
+        <v>199559043.8741242</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="6"/>
+        <v>59217848.167991154</v>
+      </c>
+      <c r="P48">
+        <f t="shared" si="7"/>
+        <v>27612409.817479752</v>
+      </c>
+      <c r="Q48">
+        <f t="shared" si="8"/>
+        <v>180961489.92719248</v>
+      </c>
+      <c r="R48">
+        <f t="shared" si="19"/>
+        <v>140341195.70613304</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A333" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A334" s="6" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I3" xr:uid="{83FADB11-918F-4756-ADB5-17A4BA479581}">
+      <formula1>$A$333:$A$334</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
